--- a/excel-sheets/myer.xlsx
+++ b/excel-sheets/myer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhaskarvegesna/Documents/code/java/Assignment_RS/excel-sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FF24DE-3AD3-714F-9564-1533BC1BC68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249A0B4C-60EA-DC40-AB7C-C9967485FFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16020" xr2:uid="{57C864D6-5141-A14D-AE2A-550DA93826B2}"/>
   </bookViews>
@@ -59,9 +59,6 @@
     <t>Lego Star Wars</t>
   </si>
   <si>
-    <t>6 items</t>
-  </si>
-  <si>
     <t>5 items</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>Star Wars Snowtrooper Battle Pack 75320</t>
+  </si>
+  <si>
+    <t>18 items</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -478,10 +478,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -495,10 +495,10 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
